--- a/result/gr100_01_simulated/details.xlsx
+++ b/result/gr100_01_simulated/details.xlsx
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.072951078414917</v>
+        <v>0.8057775497436523</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4578.49349322853</v>
+        <v>4579.600213179509</v>
       </c>
       <c r="F2" t="n">
         <v>0.2022463580123643</v>
@@ -594,49 +594,49 @@
         <v>0.1075019016274153</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1069626835507468</v>
+        <v>0.1075019016274153</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1061147436910226</v>
+        <v>0.1074888211835606</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1061147436910226</v>
+        <v>0.1065843255760504</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1065843255760504</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1060407155884529</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1060407155884529</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1060407155884529</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1060407155884529</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1053953846563404</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1053953846563404</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1053953846563404</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1053066515441534</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1052889596742081</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.1052889596742081</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1052493858329148</v>
+        <v>0.105270959321238</v>
       </c>
     </row>
     <row r="3">
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8820264339447021</v>
+        <v>0.9119932651519775</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>4578.601981765231</v>
+        <v>4579.307614346204</v>
       </c>
       <c r="F3" t="n">
         <v>0.2022463580123643</v>
@@ -676,46 +676,46 @@
         <v>0.1075019016274153</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1071457251935886</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1069925161893716</v>
+        <v>0.1071457251935886</v>
       </c>
       <c r="N3" t="n">
-        <v>0.105478936830218</v>
+        <v>0.1060023192380948</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1053625289873358</v>
+        <v>0.1060023192380948</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1053625289873358</v>
+        <v>0.1060023192380948</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1053625289873358</v>
+        <v>0.1060023192380948</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1053625289873358</v>
+        <v>0.1060023192380948</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1053625289873358</v>
+        <v>0.1060023192380948</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1053625289873358</v>
+        <v>0.1053555684563418</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1053625289873358</v>
+        <v>0.1052899878317202</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1052917900612952</v>
+        <v>0.1052899878317202</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1052917900612952</v>
+        <v>0.1052899878317202</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1052515006192053</v>
+        <v>0.1052652556402769</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1052515006192053</v>
+        <v>0.1052652556402769</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8730337619781494</v>
+        <v>0.7844038009643555</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>4580.16138918655</v>
+        <v>4578.891474699201</v>
       </c>
       <c r="F4" t="n">
         <v>0.2022463580123643</v>
@@ -752,49 +752,49 @@
         <v>0.1075019016274153</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1070619727165266</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1069875377237147</v>
+        <v>0.1070619727165266</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1055436347662874</v>
+        <v>0.1070438236302132</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1055436347662874</v>
+        <v>0.1056391856218288</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1055139381293221</v>
+        <v>0.1056391856218288</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1055139381293221</v>
+        <v>0.1056391856218288</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1055139381293221</v>
+        <v>0.105347232971681</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1055139381293221</v>
+        <v>0.105347232971681</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1053026917055611</v>
+        <v>0.105347232971681</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1053026917055611</v>
+        <v>0.105347232971681</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1053026917055611</v>
+        <v>0.105347232971681</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1053026917055611</v>
+        <v>0.1053204914032758</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1052818984246891</v>
+        <v>0.105272245909678</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1052818984246891</v>
+        <v>0.1052571437563197</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1052818984246891</v>
+        <v>0.1052571437563197</v>
       </c>
     </row>
     <row r="5">
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8229732513427734</v>
+        <v>0.7968897819519043</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>4579.543055653727</v>
+        <v>4582.737127651533</v>
       </c>
       <c r="F5" t="n">
         <v>0.2022463580123643</v>
@@ -828,52 +828,52 @@
         <v>0.1086273246795502</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1065624492353679</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1055772594239685</v>
       </c>
       <c r="L5" t="n">
-        <v>0.10554582583454</v>
+        <v>0.1055772594239685</v>
       </c>
       <c r="M5" t="n">
-        <v>0.10554582583454</v>
+        <v>0.1055772594239685</v>
       </c>
       <c r="N5" t="n">
-        <v>0.10554582583454</v>
+        <v>0.1055772594239685</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1055772594239685</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1055772594239685</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1055772594239685</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1055202967545155</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1053586914978238</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1053586914978238</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1053586914978238</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1053321077514919</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1053056550629095</v>
+        <v>0.1053321077514919</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1052698451394488</v>
+        <v>0.1053321077514919</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1052698451394488</v>
+        <v>0.1053321077514919</v>
       </c>
     </row>
     <row r="6">
@@ -886,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777963399887085</v>
+        <v>0.7968709468841553</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4578.485969253041</v>
+        <v>4581.088744419015</v>
       </c>
       <c r="F6" t="n">
         <v>0.2022463580123643</v>
@@ -910,49 +910,49 @@
         <v>0.1075019016274153</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1069630472723423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1057991016828485</v>
+        <v>0.1069630472723423</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1053434734812082</v>
+        <v>0.1066792259690654</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1053434734812082</v>
+        <v>0.1059793579356022</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1053434734812082</v>
+        <v>0.1054106989892522</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1053434734812082</v>
+        <v>0.1054106989892522</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1052650381497504</v>
+        <v>0.1054106989892522</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1052650381497504</v>
+        <v>0.1054106989892522</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1052650381497504</v>
+        <v>0.1054106989892522</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1052650381497504</v>
+        <v>0.1053125804047961</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1052650381497504</v>
+        <v>0.1053125804047961</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1052492391667259</v>
+        <v>0.1053125804047961</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1052492391667259</v>
+        <v>0.1053125804047961</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1052492391667259</v>
+        <v>0.1052999755247371</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1052492391667259</v>
+        <v>0.1052999755247371</v>
       </c>
     </row>
     <row r="7">
@@ -965,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8539981842041016</v>
+        <v>0.7968652248382568</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>4578.781002761292</v>
+        <v>4578.457432586334</v>
       </c>
       <c r="F7" t="n">
         <v>0.2022463580123643</v>
@@ -986,52 +986,52 @@
         <v>0.1086273246795502</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1060995421792561</v>
+        <v>0.1063000828664116</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1060995421792561</v>
+        <v>0.1063000828664116</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1053060890149163</v>
+        <v>0.1053915303629414</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1053038153761831</v>
+        <v>0.1053915303629414</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1053038153761831</v>
+        <v>0.1053915303629414</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1053038153761831</v>
+        <v>0.1053915303629414</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1053038153761831</v>
+        <v>0.1053915303629414</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1053038153761831</v>
+        <v>0.1052750472760308</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1053038153761831</v>
+        <v>0.1052750472760308</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1052823842519248</v>
+        <v>0.1052750472760308</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1052823842519248</v>
+        <v>0.1052750472760308</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1052822033638368</v>
+        <v>0.1052750472760308</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1052822033638368</v>
+        <v>0.1052750472760308</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1052822033638368</v>
+        <v>0.1052750472760308</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1052549903072376</v>
+        <v>0.1052486828964198</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1052549903072376</v>
+        <v>0.1052486828964198</v>
       </c>
     </row>
     <row r="8">
@@ -1044,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8100500106811523</v>
+        <v>0.8124985694885254</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>4578.389515206685</v>
+        <v>4578.439842065173</v>
       </c>
       <c r="F8" t="n">
         <v>0.2022463580123643</v>
@@ -1068,49 +1068,49 @@
         <v>0.1075019016274153</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1068387254329724</v>
+        <v>0.1075019016274153</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1067453362870848</v>
+        <v>0.1055091129974938</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1060464278288122</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1060464278288122</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1053648599755348</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1053648599755348</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1053146207759082</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1053146207759082</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1053146207759082</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1053146207759082</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1052473589708905</v>
+        <v>0.1053020261018551</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1052473589708905</v>
+        <v>0.1052561916668784</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1052473589708905</v>
+        <v>0.1052561916668784</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1052473589708905</v>
+        <v>0.1052483400012704</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1052473589708905</v>
+        <v>0.1052483400012704</v>
       </c>
     </row>
     <row r="9">
@@ -1123,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8409545421600342</v>
+        <v>0.7812516689300537</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>4578.445051119625</v>
+        <v>4578.291388007952</v>
       </c>
       <c r="F9" t="n">
         <v>0.2022463580123643</v>
@@ -1144,52 +1144,52 @@
         <v>0.1086273246795502</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1065073651198012</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1065073651198012</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1055845777488583</v>
+        <v>0.1060608090164503</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1053248102047598</v>
+        <v>0.1060608090164503</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1053248102047598</v>
+        <v>0.1053788354323011</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1053248102047598</v>
+        <v>0.1053788354323011</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1053248102047598</v>
+        <v>0.1053788354323011</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1053248102047598</v>
+        <v>0.1053788354323011</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1053248102047598</v>
+        <v>0.1053788354323011</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1053248102047598</v>
+        <v>0.1053788354323011</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1052484415422929</v>
+        <v>0.1053788354323011</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1052484415422929</v>
+        <v>0.1052640622691247</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1052484415422929</v>
+        <v>0.1052640622691247</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1052484415422929</v>
+        <v>0.1052634987310408</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1052484415422929</v>
+        <v>0.1052634987310408</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1052484415422929</v>
+        <v>0.105245446159999</v>
       </c>
     </row>
     <row r="10">
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8609969615936279</v>
+        <v>0.781224250793457</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>4578.733688172117</v>
+        <v>4579.043172884622</v>
       </c>
       <c r="F10" t="n">
         <v>0.2022463580123643</v>
@@ -1223,52 +1223,52 @@
         <v>0.1086273246795502</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1073636227238005</v>
+        <v>0.1068047185099058</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1073636227238005</v>
+        <v>0.1068047185099058</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1073636227238005</v>
+        <v>0.1063103485318554</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1072333977179919</v>
+        <v>0.1063103485318554</v>
       </c>
       <c r="N10" t="n">
-        <v>0.106092800176538</v>
+        <v>0.1060852370270839</v>
       </c>
       <c r="O10" t="n">
-        <v>0.106092800176538</v>
+        <v>0.1060852370270839</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1060852370270839</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1053582414450147</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1053582414450147</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1053582414450147</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1053582414450147</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1053582414450147</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1053582414450147</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1053574142348371</v>
+        <v>0.1052601008359575</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1052540679955578</v>
+        <v>0.1052601008359575</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1052540679955578</v>
+        <v>0.1052601008359575</v>
       </c>
     </row>
     <row r="11">
@@ -1281,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8800427913665771</v>
+        <v>0.7968995571136475</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>4579.179056366619</v>
+        <v>4581.900914603236</v>
       </c>
       <c r="F11" t="n">
         <v>0.2022463580123643</v>
@@ -1302,52 +1302,52 @@
         <v>0.1086273246795502</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1074923203459799</v>
+        <v>0.1075019016274153</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1060551444877452</v>
+        <v>0.1075019016274153</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1060551444877452</v>
+        <v>0.1071568231277742</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1071568231277742</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1065465200169519</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1055378804817546</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1055378804817546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1055378804817546</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1055378804817546</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1053718667400415</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1053718667400415</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1054469041379731</v>
+        <v>0.1053718667400415</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1052800280487579</v>
+        <v>0.1053718667400415</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1052627496367762</v>
+        <v>0.1053718667400415</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1052627496367762</v>
+        <v>0.1053718667400415</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1052627496367762</v>
+        <v>0.1053158073022073</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_01_simulated/details.xlsx
+++ b/result/gr100_01_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8057775497436523</v>
+        <v>1.850998401641846</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>4579.600213179509</v>
+        <v>6108.976187777497</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.155947264311399</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.155829573518702</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1524256689263317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1074888211835606</v>
+        <v>0.1524256689263317</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1065843255760504</v>
+        <v>0.1524224639274797</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1065843255760504</v>
+        <v>0.1509460288757003</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1060407155884529</v>
+        <v>0.1499289225666692</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1060407155884529</v>
+        <v>0.1464880652105072</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1060407155884529</v>
+        <v>0.1464880652105072</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1060407155884529</v>
+        <v>0.1464880652105072</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1053953846563404</v>
+        <v>0.1462150297469437</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1053953846563404</v>
+        <v>0.1447380139405461</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1053953846563404</v>
+        <v>0.1445939337924105</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1053066515441534</v>
+        <v>0.1434838983807895</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1052889596742081</v>
+        <v>0.1434838983807895</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1052889596742081</v>
+        <v>0.1434838983807895</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.105270959321238</v>
+        <v>0.1430833564868907</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9119932651519775</v>
+        <v>1.959998369216919</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>4579.307614346204</v>
+        <v>6061.061698657956</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1540551784051227</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1540551784051227</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1540551784051227</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1071457251935886</v>
+        <v>0.1540551784051227</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1071457251935886</v>
+        <v>0.1540551784051227</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1060023192380948</v>
+        <v>0.1540551784051227</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1060023192380948</v>
+        <v>0.1533941637131498</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1060023192380948</v>
+        <v>0.1483903279974793</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1060023192380948</v>
+        <v>0.1483903279974793</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1060023192380948</v>
+        <v>0.1450240524904412</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1060023192380948</v>
+        <v>0.1450240524904412</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1053555684563418</v>
+        <v>0.1443688032806061</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1052899878317202</v>
+        <v>0.1443688032806061</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1052899878317202</v>
+        <v>0.143496164911475</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1052899878317202</v>
+        <v>0.1427066977472081</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1052652556402769</v>
+        <v>0.1425745785387607</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1052652556402769</v>
+        <v>0.1421493508510323</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7844038009643555</v>
+        <v>1.929001569747925</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4578.891474699201</v>
+        <v>6064.721418270442</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1560440163731134</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.151221569005294</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1070619727165266</v>
+        <v>0.147242221359071</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1070619727165266</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1070438236302132</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1056391856218288</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1056391856218288</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1056391856218288</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.105347232971681</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="R4" t="n">
-        <v>0.105347232971681</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="S4" t="n">
-        <v>0.105347232971681</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="T4" t="n">
-        <v>0.105347232971681</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="U4" t="n">
-        <v>0.105347232971681</v>
+        <v>0.1429953943945027</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1053204914032758</v>
+        <v>0.1422354836039892</v>
       </c>
       <c r="W4" t="n">
-        <v>0.105272245909678</v>
+        <v>0.1422354836039892</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1052571437563197</v>
+        <v>0.1422354836039892</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1052571437563197</v>
+        <v>0.1422206904146285</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7968897819519043</v>
+        <v>1.777008533477783</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>4582.737127651533</v>
+        <v>6094.222036279522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1560440163731134</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1065624492353679</v>
+        <v>0.1537640374119212</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1055772594239685</v>
+        <v>0.1537640374119212</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1055772594239685</v>
+        <v>0.1537640374119212</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1055772594239685</v>
+        <v>0.1537640374119212</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1055772594239685</v>
+        <v>0.1509546934121953</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1055772594239685</v>
+        <v>0.1476937255697986</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1055772594239685</v>
+        <v>0.1476937255697986</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1055772594239685</v>
+        <v>0.1476937255697986</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1055202967545155</v>
+        <v>0.1452758186161132</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1053586914978238</v>
+        <v>0.1447366241578489</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1053586914978238</v>
+        <v>0.1435533082807948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1053586914978238</v>
+        <v>0.1435533082807948</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1053321077514919</v>
+        <v>0.1435533082807948</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1053321077514919</v>
+        <v>0.1435533082807948</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1053321077514919</v>
+        <v>0.1435533082807948</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1053321077514919</v>
+        <v>0.1427957511945326</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7968709468841553</v>
+        <v>1.849978685379028</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>4581.088744419015</v>
+        <v>6207.786417438995</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1560440163731134</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.147381492381348</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1069630472723423</v>
+        <v>0.147381492381348</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1069630472723423</v>
+        <v>0.147381492381348</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1066792259690654</v>
+        <v>0.147381492381348</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1059793579356022</v>
+        <v>0.1464383651948443</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1054106989892522</v>
+        <v>0.1462087375914113</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1054106989892522</v>
+        <v>0.1462087375914113</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1054106989892522</v>
+        <v>0.1462087375914113</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1054106989892522</v>
+        <v>0.1462087375914113</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1054106989892522</v>
+        <v>0.1462087375914113</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1053125804047961</v>
+        <v>0.1458166668098168</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1053125804047961</v>
+        <v>0.1458166668098168</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1053125804047961</v>
+        <v>0.1456608945546251</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1053125804047961</v>
+        <v>0.1456608945546251</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1052999755247371</v>
+        <v>0.1451553182299791</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1052999755247371</v>
+        <v>0.1450094818214229</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7968652248382568</v>
+        <v>1.672035694122314</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4578.457432586334</v>
+        <v>6118.56575990176</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1560440163731134</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1063000828664116</v>
+        <v>0.1551958969359106</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1063000828664116</v>
+        <v>0.1541769242807673</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1053915303629414</v>
+        <v>0.1541769242807673</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1053915303629414</v>
+        <v>0.1480694999173292</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1053915303629414</v>
+        <v>0.1471405351641092</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1053915303629414</v>
+        <v>0.1462608025093261</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1053915303629414</v>
+        <v>0.1462608025093261</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1052750472760308</v>
+        <v>0.1445759192040776</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1052750472760308</v>
+        <v>0.1434925387287085</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1052750472760308</v>
+        <v>0.1434925387287085</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1052750472760308</v>
+        <v>0.1434925387287085</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1052750472760308</v>
+        <v>0.1432702877173832</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1052750472760308</v>
+        <v>0.1432702877173832</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1052750472760308</v>
+        <v>0.1432702877173832</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1052486828964198</v>
+        <v>0.1432702877173832</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1052486828964198</v>
+        <v>0.1432702877173832</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8124985694885254</v>
+        <v>1.82099461555481</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>4578.439842065173</v>
+        <v>6173.329300477842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1560440163731134</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.155829573518702</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1557735451149562</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1055091129974938</v>
+        <v>0.1549212787294311</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1549212787294311</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1510225897215471</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1481328739891422</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1481328739891422</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1481328739891422</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1478390686684193</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1478390686684193</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.146347800249354</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1053020261018551</v>
+        <v>0.1452363234564854</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1052561916668784</v>
+        <v>0.1452363234564854</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1052561916668784</v>
+        <v>0.1452363234564854</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1052483400012704</v>
+        <v>0.144337803128223</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1052483400012704</v>
+        <v>0.144337803128223</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7812516689300537</v>
+        <v>1.636015176773071</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>4578.291388007952</v>
+        <v>5963.271113327468</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1560440163731134</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1065073651198012</v>
+        <v>0.1549574303356408</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1065073651198012</v>
+        <v>0.1488304963110333</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1060608090164503</v>
+        <v>0.1441655968877454</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1060608090164503</v>
+        <v>0.1441655968877454</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1053788354323011</v>
+        <v>0.1441655968877454</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1053788354323011</v>
+        <v>0.1441655968877454</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1053788354323011</v>
+        <v>0.1427722349072908</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1053788354323011</v>
+        <v>0.1427722349072908</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1053788354323011</v>
+        <v>0.1427722349072908</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1053788354323011</v>
+        <v>0.1419677473112088</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1053788354323011</v>
+        <v>0.1411242855636162</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1052640622691247</v>
+        <v>0.1411242855636162</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1052640622691247</v>
+        <v>0.1406520023074759</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1052634987310408</v>
+        <v>0.1405939555667922</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1052634987310408</v>
+        <v>0.1404101780994849</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.105245446159999</v>
+        <v>0.1402431016243171</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.781224250793457</v>
+        <v>1.819993495941162</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>4579.043172884622</v>
+        <v>6181.991474539906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1568647739662924</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1560440163731134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1068047185099058</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1068047185099058</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1063103485318554</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1063103485318554</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1060852370270839</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1060852370270839</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1060852370270839</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1053582414450147</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1053582414450147</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1053582414450147</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1053582414450147</v>
+        <v>0.145129548347398</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1053582414450147</v>
+        <v>0.1445066564237798</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1053582414450147</v>
+        <v>0.1445066564237798</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1052601008359575</v>
+        <v>0.1445066564237798</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1052601008359575</v>
+        <v>0.1445066564237798</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1052601008359575</v>
+        <v>0.1445066564237798</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7968995571136475</v>
+        <v>1.697025299072266</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>4581.900914603236</v>
+        <v>6104.453648436408</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2022463580123643</v>
+        <v>0.2100780598911265</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1375788833061435</v>
+        <v>0.1600597640567812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1153946630713176</v>
+        <v>0.1533160344061542</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1086273246795502</v>
+        <v>0.1533160344061542</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1532006730738767</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1075019016274153</v>
+        <v>0.1506392647723403</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1071568231277742</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1071568231277742</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1065465200169519</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1055378804817546</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1055378804817546</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1055378804817546</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1055378804817546</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1053718667400415</v>
+        <v>0.1434340953178387</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1053718667400415</v>
+        <v>0.1433527779795554</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1053718667400415</v>
+        <v>0.1433527779795554</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1053718667400415</v>
+        <v>0.1433527779795554</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1053718667400415</v>
+        <v>0.1429951978252711</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1053718667400415</v>
+        <v>0.1429951978252711</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1053158073022073</v>
+        <v>0.1429951978252711</v>
       </c>
     </row>
   </sheetData>
